--- a/assets/public/Chapter_2_Recording_accounting_transactions/documents/resources/Grid/2.5.3.xlsx
+++ b/assets/public/Chapter_2_Recording_accounting_transactions/documents/resources/Grid/2.5.3.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Urja\Dropbox\Accounting Courseware\Chapter_2_Recording_accounting_transactions\documents\resources\Grid\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{256CB811-293C-49AC-A453-A465C5DCAAA0}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33BF4427-A7C4-4D5E-9E85-61906667184E}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="465" windowWidth="19200" windowHeight="11325" tabRatio="898" xr2:uid="{CDDB8127-8CCC-481C-BAE9-D13AC6387C88}"/>
   </bookViews>
   <sheets>
     <sheet name="1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="191029" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
